--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_8_3.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_8_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,776 +478,311 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_0</t>
+          <t>model_8_3_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4682827446467467</v>
+        <v>0.2550453511401096</v>
       </c>
       <c r="C2" t="n">
-        <v>0.907755356951004</v>
+        <v>-2.492917705743157</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7000829224516099</v>
+        <v>0.2647461933361753</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8599518442616501</v>
+        <v>-1.279457686529687</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5884543061256409</v>
+        <v>0.8244453072547913</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1180091425776482</v>
+        <v>4.39958381652832</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2215243875980377</v>
+        <v>0.6601797342300415</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1667216718196869</v>
+        <v>2.639865875244141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_1</t>
+          <t>model_8_3_7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6906738462335972</v>
+        <v>0.3181450253864635</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8368735193762485</v>
+        <v>-2.188125716619354</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5592898006797351</v>
+        <v>0.350428785308034</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7785188560692122</v>
+        <v>-1.072696751561433</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3423328995704651</v>
+        <v>0.7546125054359436</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2086887061595917</v>
+        <v>4.015676021575928</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3255168199539185</v>
+        <v>0.5832459330558777</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2636643052101135</v>
+        <v>2.400413513183594</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_3</t>
+          <t>model_8_3_6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7059004270457125</v>
+        <v>0.3332747399537856</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5250756223271185</v>
+        <v>-2.102826917929399</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7890649123584869</v>
+        <v>0.3602785052403656</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6682195353431756</v>
+        <v>-1.019987945043571</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3254815638065338</v>
+        <v>0.7378683686256409</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6075736880302429</v>
+        <v>3.908236265182495</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1558006107807159</v>
+        <v>0.5744019150733948</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3949711918830872</v>
+        <v>2.339370965957642</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_2</t>
+          <t>model_8_3_5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7337392875512528</v>
+        <v>0.3461504604574432</v>
       </c>
       <c r="C5" t="n">
-        <v>0.829826206567936</v>
+        <v>-2.011800483363715</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6419618761934758</v>
+        <v>0.3694620168180808</v>
       </c>
       <c r="E5" t="n">
-        <v>0.79864611467744</v>
+        <v>-0.9642269306642897</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2946721613407135</v>
+        <v>0.7236188054084778</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2177043557167053</v>
+        <v>3.79358172416687</v>
       </c>
       <c r="H5" t="n">
-        <v>0.264453649520874</v>
+        <v>0.5661560893058777</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2397036552429199</v>
+        <v>2.27479362487793</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_4</t>
+          <t>model_8_3_8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8354975652359728</v>
+        <v>0.3506919772699533</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8334157983667662</v>
+        <v>-2.003332449768993</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7911305115288372</v>
+        <v>0.3261803091513324</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8442437345910795</v>
+        <v>-0.9751418767109044</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1820557117462158</v>
+        <v>0.718592643737793</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2131121754646301</v>
+        <v>3.782915830612183</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1542749106884003</v>
+        <v>0.6050184965133667</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1854215413331985</v>
+        <v>2.287434101104736</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_6</t>
+          <t>model_8_3_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8729772133594667</v>
+        <v>0.4734028247657787</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7157476697554845</v>
+        <v>-1.27340971971039</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5620814723526917</v>
+        <v>0.3507376407264107</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7104207864286064</v>
+        <v>-0.5458978523267588</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1405767947435379</v>
+        <v>0.5827879309654236</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3636457324028015</v>
+        <v>2.863524913787842</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3234548270702362</v>
+        <v>0.5829685926437378</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3447323441505432</v>
+        <v>1.790321946144104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_7</t>
+          <t>model_8_3_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8780538603546362</v>
+        <v>0.4758301170227279</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7380456090369352</v>
+        <v>-1.268934166622146</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5546946863975983</v>
+        <v>0.3829820762622368</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7209501388139035</v>
+        <v>-0.5315563589043153</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1349584460258484</v>
+        <v>0.5801016092300415</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3351198732852936</v>
+        <v>2.857887744903564</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3289108574390411</v>
+        <v>0.5540165305137634</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3321975767612457</v>
+        <v>1.773712873458862</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_18</t>
+          <t>model_8_3_0</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8826777112447477</v>
+        <v>0.7675846638655418</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7761927479301574</v>
+        <v>0.5565682239064772</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4707321436473867</v>
+        <v>0.4943186727594311</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7181391111292542</v>
+        <v>0.5601772055472157</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1298412084579468</v>
+        <v>0.257215291261673</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2863179743289948</v>
+        <v>0.558534562587738</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3909271657466888</v>
+        <v>0.4540480971336365</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3355439603328705</v>
+        <v>0.5093637704849243</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_21</t>
+          <t>model_8_3_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8831100490193369</v>
+        <v>0.7704132109894796</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7793294901472118</v>
+        <v>0.468702870515983</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4673605707197516</v>
+        <v>0.2595521826818594</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7189378575072308</v>
+        <v>0.423929601180705</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1293627321720123</v>
+        <v>0.2540849149227142</v>
       </c>
       <c r="G10" t="n">
-        <v>0.282305121421814</v>
+        <v>0.6692073941230774</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3934174776077271</v>
+        <v>0.6648434400558472</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3345930874347687</v>
+        <v>0.6671537160873413</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_22</t>
+          <t>model_8_3_2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8831379669533658</v>
+        <v>0.7928571794263912</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7818404299783301</v>
+        <v>0.504684281533097</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4624496699993063</v>
+        <v>0.3338858963453517</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7189294211200905</v>
+        <v>0.4717677135738505</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1293318271636963</v>
+        <v>0.2292460650205612</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2790929079055786</v>
+        <v>0.6238862276077271</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3970447480678558</v>
+        <v>0.5980996489524841</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3346031606197357</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>model_8_3_24</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.8831576856472698</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7818060985982573</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.462074929191693</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.7188021001124849</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.1293100118637085</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.2791368067264557</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.3973215222358704</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.3347547054290771</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>model_8_3_23</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.8831965394949178</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7800133871375716</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.4662717442529803</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.7190070505342108</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.1292670220136642</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.2814302146434784</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.3942216634750366</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.3345107138156891</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>model_8_3_14</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.8837003204355744</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.7876429437745609</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.461461081264497</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.7219461760822105</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.128709465265274</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.2716696858406067</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.3977749347686768</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.3310118019580841</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>model_8_3_20</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.8839491506246561</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.7858497545903984</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.4638239161564963</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.7216153661452949</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.1284340918064117</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.2739636898040771</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.3960297107696533</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.3314056098461151</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>model_8_3_19</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.8842733280807517</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.7857880648458374</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.4675004368075006</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.7226522662869361</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.1280753314495087</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.2740426361560822</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.3933141529560089</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.3301712274551392</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>model_8_3_13</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.8845948237034363</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.8008787500995314</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.4484393650581071</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.7256730236195632</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.127719521522522</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.2547370195388794</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.4073930084705353</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.3265751302242279</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>model_8_3_17</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.8846128797442769</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7843841914992111</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.4759422204113677</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.7243182271795712</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.127699539065361</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.2758386135101318</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.3870789110660553</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.3281880021095276</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>model_8_3_11</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.884835717459313</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8040806526340381</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.4460409466515255</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.7267958657485147</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.1274529248476028</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.2506408095359802</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.4091645479202271</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.3252384662628174</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>model_8_3_12</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.8848358312087057</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8026271560645873</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.4480049729200559</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.7265402017102329</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.1274528056383133</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.2525002956390381</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.4077138602733612</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.3255428075790405</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>model_8_3_15</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.884993123045102</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.7888189883199288</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.4725490216324452</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.7258523906300123</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.1272787302732468</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.2701651453971863</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.3895851671695709</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.3263616263866425</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>model_8_3_8</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.8852363458323116</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7915318684762634</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.5070932709033009</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.7374808471678638</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.1270095556974411</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.266694575548172</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.3640701472759247</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.3125184178352356</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>model_8_3_16</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.8868253474491806</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.7944987999816591</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.480310965476427</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.7313494052041558</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.125250980257988</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.2628989219665527</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.3838520646095276</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.3198176622390747</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>model_8_3_10</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.8874462384288525</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.7986836134737714</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.4841543679307553</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.7348511124199786</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.1245638653635979</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.2575452923774719</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.3810132443904877</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.3156489729881287</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_8_3_9</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.893376132617948</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.8441630230635009</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.4811363188842901</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.7598454302432178</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.1180012077093124</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.1993632018566132</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.3832424283027649</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.2858943045139313</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_8_3_5</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9064864004996069</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.8999785733457639</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.6625928159160904</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.8445806144775776</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.1034920066595078</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.1279580146074295</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.2492152750492096</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.1850204914808273</v>
+        <v>0.6117518544197083</v>
       </c>
     </row>
   </sheetData>
